--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7A0BA9-AC26-4725-94F8-91940A6539C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE260561-6AFC-4074-A275-72BB117DEE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8170" yWindow="7250" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6140" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>group</t>
   </si>
@@ -196,6 +196,46 @@
   </si>
   <si>
     <t>佐克洛邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨鸿苍穹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佚名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongyang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂啸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏很有创意，也感觉很有深度加油吧，看好你们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#23238E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoZo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱静静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只海狗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -826,7 +866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -834,7 +874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -842,7 +882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -850,7 +890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -858,7 +898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -866,7 +906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -874,12 +914,85 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE260561-6AFC-4074-A275-72BB117DEE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7235E3-D1A5-45FA-AA31-027A49917818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6140" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8450" yWindow="6470" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>group</t>
   </si>
@@ -236,6 +236,74 @@
   </si>
   <si>
     <t>一只海狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六元首冲党</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缅怀过去，把握现在，展望未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jojo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77是憨批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ea66a6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸡炖蘑菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shouyuko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9370DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#06C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好面对你那操蛋的人生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯大巴克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜葱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈椎病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆果团子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -995,6 +1063,125 @@
         <v>27</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1">
+        <v>611</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7235E3-D1A5-45FA-AA31-027A49917818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD1BE19-257E-40C4-9EA2-D10BF82785C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8450" yWindow="6470" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8380" yWindow="5020" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>group</t>
   </si>
@@ -304,6 +304,78 @@
   </si>
   <si>
     <t>圆果团子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神之领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西域刀客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正牌孟岩様</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果真能重来的话……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王杰文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin Lu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵发红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑衣人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有林啊.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡鸦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犽犽超级喜欢赫尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕圈跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董研策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口爆青年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1182,6 +1254,140 @@
         <v>71</v>
       </c>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD1BE19-257E-40C4-9EA2-D10BF82785C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79012DB-4D02-4F02-B229-AB79C459B6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8380" yWindow="5020" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6860" yWindow="1530" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>group</t>
   </si>
@@ -376,6 +376,81 @@
   </si>
   <si>
     <t>口爆青年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师田斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zicade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨繁星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只程序猿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俗人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>来自S8B515宿舍的支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DreamRide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人不如意十八九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉心糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙铭钰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾贾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中年危机陈西西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙房地产大亨弗利萨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +488,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -723,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1388,6 +1469,124 @@
         <v>89</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79012DB-4D02-4F02-B229-AB79C459B6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814670E1-EC1E-450E-9356-73242C21A32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6860" yWindow="1530" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8090" yWindow="3540" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
   <si>
     <t>group</t>
   </si>
@@ -451,6 +451,238 @@
   </si>
   <si>
     <t>宇宙房地产大亨弗利萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的薛爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖怪蜀黍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘沈钧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑稽拌饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敖鹏柽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张逸尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七海Nana7mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff70cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松松小笨蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeroCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺好玩的小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划大大的大跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny cherry petal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">般若鬼面 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#921AFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璟年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干死黄旭东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五胖是真的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗贼给箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹东洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barusamikosu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小保安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒（ ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下半鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaosaye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAKAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icefrog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁一斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊公子nice哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徙南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟粟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残梦空恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试名字的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏吉野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想丶当时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琦琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执笔诉情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔在右丷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈和大叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀大大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电饭锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦鼠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1587,6 +1819,450 @@
         <v>105</v>
       </c>
     </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>2</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>2</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>2</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>2</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>2</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>2</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>2</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>2</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>2</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>2</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>2</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>2</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>2</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>2</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>2</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>2</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>2</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>2</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>2</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>2</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>2</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>2</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>2</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>2</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>2</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814670E1-EC1E-450E-9356-73242C21A32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B251B6C-F82D-46C4-89F6-BD171826C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8090" yWindow="3540" windowWidth="17880" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3530" windowWidth="17880" windowHeight="15470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="217">
   <si>
     <t>group</t>
   </si>
@@ -683,6 +683,248 @@
   </si>
   <si>
     <t>梦鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicc宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开的胖达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小葛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flamingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊表心意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叁叁得玖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知名的小秘书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉水云端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣又贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大猫先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔波霸丶霸波奔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独一の宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错过了就是一辈子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惶恐的方糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙大侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄庆喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kululu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一坪海岸线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧光影里的乔乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊夫洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>享年18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鱼菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅哥恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想当策划大大的大跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱命割杀打!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天辰星雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只卑微想活下去的孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余栀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球帝-一杆清场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐振恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苟且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MegaCoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕噜录喜欢玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#212832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音无彩名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最爱奶瓶的憨憨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小企鹅鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>百化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 我的百化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤤</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半途废物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六一是个好日子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑路的贤者之石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zmz西内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1036,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2263,6 +2505,423 @@
         <v>163</v>
       </c>
     </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>2</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>2</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>2</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>2</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>2</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>2</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>2</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>2</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>2</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>2</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>2</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>2</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>2</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>2</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>2</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>2</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>2</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>2</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>2</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>2</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>2</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>2</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>2</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>2</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>2</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>2</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>2</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>2</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>2</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>2</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>2</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>2</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>2</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>2</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>2</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1">
+        <v>55</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>2</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>2</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>2</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>2</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>2</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>2</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>2</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>2</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>2</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>2</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>2</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B251B6C-F82D-46C4-89F6-BD171826C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6EE6AB-F865-463C-8B83-DAD9DDC4C9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3530" windowWidth="17880" windowHeight="15470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="265">
   <si>
     <t>group</t>
   </si>
@@ -925,6 +925,198 @@
   </si>
   <si>
     <t>zmz西内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然今天吃什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一下又一夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤尔文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦里千寻狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venividivici</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头门天下第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战地流星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩冈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一洛liquor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅包肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上杉绘梨衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闇夜無白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#B15BFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#622D85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄非红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiadada2333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨二傻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最平淡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我敲腻害ii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西楚棋待诏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个不想活的太烂的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斯巴甜_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unseptbium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fitgor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车八戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕容佳佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩鸿鹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00ff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈先森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chensc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于星橦娇妻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧二花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废土战狼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H187" sqref="H187"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="G244" sqref="G244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2922,6 +3114,375 @@
         <v>216</v>
       </c>
     </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>2</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>2</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>2</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>2</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>2</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>2</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>2</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>2</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>2</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>2</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>2</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>2</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>2</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>2</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>2</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>2</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>2</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>2</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>2</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>2</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>2</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>2</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>2</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>2</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>2</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>2</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>2</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>2</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>2</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>2</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>2</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>2</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>2</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>2</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>2</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>2</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>2</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>2</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>2</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>2</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>2</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>2</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>2</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>2</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6EE6AB-F865-463C-8B83-DAD9DDC4C9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8774EB-B6D6-4C06-BF9C-24F01E56C9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3530" windowWidth="17880" windowHeight="15470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8730" yWindow="6100" windowWidth="17640" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="288">
   <si>
     <t>group</t>
   </si>
@@ -1117,6 +1117,98 @@
   </si>
   <si>
     <t>废土战狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caesar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宅男阿海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程蝶衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b 安贝慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼噜呼噜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解无明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeqing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si_X:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社畜一枚，玩着你们的游戏睡着了，我做了一个梦，这个梦真的很美，谢谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不喜欢甜的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛虫哥哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听风忆雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞死我了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4169E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老郑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太帅很苦恼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="G244" sqref="G244"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="I233" sqref="I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3483,6 +3575,178 @@
         <v>264</v>
       </c>
     </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>2</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>2</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>2</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>2</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>2</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>2</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>1</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>2</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>2</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>2</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>2</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>2</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>1</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>2</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>2</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>2</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>2</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>1</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>2</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>2</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8774EB-B6D6-4C06-BF9C-24F01E56C9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39317E-3900-4B39-B052-57233713484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8730" yWindow="6100" windowWidth="17640" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6100" windowWidth="17640" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="307">
   <si>
     <t>group</t>
   </si>
@@ -1209,6 +1209,82 @@
   </si>
   <si>
     <t>太帅很苦恼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鑫宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpdma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cknrsz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈航计算机@526室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llidds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不言而言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生、饮料、矿泉水！前边的腿让一让！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘锦大汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是不白嫖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alkahest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想喝胡辣汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7akum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗夜星辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷路的狗剩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎂光光同志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaclhui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1562,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+      <selection activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3625,7 +3701,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>271</v>
@@ -3745,14 +3821,162 @@
       </c>
       <c r="B260" s="2" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>2</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>2</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>2</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>2</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>2</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>2</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>1</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>2</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>2</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>2</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>2</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>2</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>2</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>2</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>2</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>2</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>2</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>2</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" xr:uid="{EFEB6B61-6435-4392-99B1-CAF9DD6A437F}"/>
+    <hyperlink ref="B265" r:id="rId2" xr:uid="{CB2CA6D1-AD70-468E-B7D4-1B07E6E4967B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E39317E-3900-4B39-B052-57233713484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF270F2-9D1A-4B31-9D5B-C98004140D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6100" windowWidth="17640" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8380" yWindow="5770" windowWidth="17640" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="347">
   <si>
     <t>group</t>
   </si>
@@ -1285,6 +1285,166 @@
   </si>
   <si>
     <t>Jaclhui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PePsiBoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯柯kkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匣里虫吟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeBron James</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九转大能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我永远喜欢月火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下一凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中远海控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱你，但是我决定放弃你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯哼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫我阿玮就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨咩咩同学，重生千百万次，只为与你重逢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tinylucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈峤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兮渠夂涞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rechard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班饭困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜瑾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bart的奇妙冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李俊宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wujiongyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰迪上仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我愿称你为最卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路过的迦勒底御主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙慧扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1638,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="D275" sqref="D275"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="I298" sqref="I298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3970,6 +4130,327 @@
         <v>306</v>
       </c>
     </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>2</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>2</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>2</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>2</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>2</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>2</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>2</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>2</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>2</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>2</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>2</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>2</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>2</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>2</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>2</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>2</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>1</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>2</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>1</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>2</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>2</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>2</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>2</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>2</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>2</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>2</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>2</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>2</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>2</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>2</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>2</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>2</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>2</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>2</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>2</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>2</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>2</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF270F2-9D1A-4B31-9D5B-C98004140D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAB4597-4496-4E04-BC18-6AA36BE8A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8380" yWindow="5770" windowWidth="17640" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="760" windowWidth="38400" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="366">
   <si>
     <t>group</t>
   </si>
@@ -1447,12 +1447,128 @@
     <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>圆月行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上帝的骰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric Chan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffff33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璐璐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨雨如烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晓得小(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>❀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>｣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>╹□╹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)｣*･</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#fdc6d9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御坂10714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灿灿紫薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城北徐公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒子精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璇瑰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菌君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老干部瓦斯科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,6 +1604,13 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1798,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="I298" sqref="I298"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4451,6 +4574,148 @@
         <v>346</v>
       </c>
     </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>2</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>2</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>2</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>2</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>2</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>2</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>2</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>2</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>2</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>2</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>2</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>2</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>2</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>2</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAB4597-4496-4E04-BC18-6AA36BE8A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42B8FE-2CA9-48FB-864C-41FC1D75F3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="760" windowWidth="38400" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="38400" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="386">
   <si>
     <t>group</t>
   </si>
@@ -1561,6 +1561,86 @@
   </si>
   <si>
     <t>悟虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass Brain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柑橘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LilacWorkShop-抢铁U彩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜音雪语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#39C5BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未名歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨博尼斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘潇雨超帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某N次扑街雷劫修士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热心市民李小龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFC0CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llmw落幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲胖胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b站汤姆要吃火锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨子南安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1921,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="C331" sqref="C331"/>
+      <selection activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4716,6 +4796,164 @@
         <v>365</v>
       </c>
     </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>2</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>2</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>2</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>2</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>2</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>2</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>2</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>2</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>2</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>2</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>2</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>2</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>2</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>2</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>2</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>2</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>2</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>2</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>2</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42B8FE-2CA9-48FB-864C-41FC1D75F3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F185DB-282A-4295-94BD-37FB9BAA1B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="38400" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="3550" windowWidth="25020" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="404">
   <si>
     <t>group</t>
   </si>
@@ -1641,6 +1641,78 @@
   </si>
   <si>
     <t>雨子南安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子气泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜夜夜夜夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮生笑笑笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫尔辛根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无我天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香酥鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜗牛慢慢爬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琳的马克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乍玩挺有意思的，但是缺乏内容，难以长久。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷包蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零玖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YoKanKan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21Ryougi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>okapok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luckymanAD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2001,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="C359" sqref="C359"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4946,12 +5018,151 @@
         <v>384</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>2</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>2</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>2</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>2</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>2</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>2</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>2</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>2</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>2</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>1</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>2</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>2</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>2</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>2</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>2</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>2</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>2</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>2</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F185DB-282A-4295-94BD-37FB9BAA1B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED48D44A-9188-4047-B880-C5F9BEC5120B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3550" windowWidth="25020" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="414">
   <si>
     <t>group</t>
   </si>
@@ -1713,6 +1713,46 @@
   </si>
   <si>
     <t>luckymanAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来碗豆腐司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安电子科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢她呀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想也要有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生不要从来，但是幻想和梦想缺一不可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退费的上帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划程序统统有赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树头花尽曼妙香</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2073,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="C376" sqref="C376"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5149,7 +5189,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>2</v>
       </c>
@@ -5157,12 +5197,87 @@
         <v>402</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>2</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>2</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>2</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>2</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>2</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>1</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>2</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>2</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>2</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED48D44A-9188-4047-B880-C5F9BEC5120B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC15A5F-DCE7-4CCE-9E22-9BD3EE80EF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="3550" windowWidth="25020" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="420">
   <si>
     <t>group</t>
   </si>
@@ -1753,6 +1753,30 @@
   </si>
   <si>
     <t>树头花尽曼妙香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣辣的牛肉干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡月星辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟之骑士蕾姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImAiden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2113,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D379"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="C383" sqref="C383"/>
+      <selection activeCell="D385" sqref="D385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5280,6 +5304,54 @@
         <v>413</v>
       </c>
     </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>2</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>2</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>2</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>2</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>2</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC15A5F-DCE7-4CCE-9E22-9BD3EE80EF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83436B-0194-41E3-8B6A-BDA6C3CC736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="3550" windowWidth="25020" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10030" yWindow="3640" windowWidth="25020" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="432">
   <si>
     <t>group</t>
   </si>
@@ -1777,6 +1777,53 @@
   </si>
   <si>
     <t>ImAiden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钛合金蚊子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球球小可爱干嘛鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不当人小天才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#00FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做个人吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-川い-</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥狗蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午安僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangbohuan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2137,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D395"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="D385" sqref="D385"/>
+      <selection activeCell="C393" sqref="C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5344,12 +5391,98 @@
         <v>418</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>2</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>2</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>2</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>2</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>1</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>2</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>2</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>2</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>2</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>2</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>2</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83436B-0194-41E3-8B6A-BDA6C3CC736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65834F6-0E3D-4004-A24A-75B3B57505CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10030" yWindow="3640" windowWidth="25020" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3640" windowWidth="25020" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="435">
   <si>
     <t>group</t>
   </si>
@@ -1824,6 +1824,18 @@
   </si>
   <si>
     <t>zhangbohuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北极熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘宇轩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2184,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="C393" sqref="C393"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5485,6 +5497,30 @@
         <v>431</v>
       </c>
     </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>2</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>2</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>2</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65834F6-0E3D-4004-A24A-75B3B57505CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876A050-9BA2-493A-9766-415E4D4D3EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3640" windowWidth="25020" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9800" yWindow="600" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="439">
   <si>
     <t>group</t>
   </si>
@@ -1836,6 +1836,22 @@
   </si>
   <si>
     <t>刘宇轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴际春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狛井朱奈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2196,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D398"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="C401" sqref="C401"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5521,6 +5537,38 @@
         <v>434</v>
       </c>
     </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>2</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>2</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>2</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>2</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876A050-9BA2-493A-9766-415E4D4D3EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF008CE9-BF12-45EE-A1CC-51CB5B44698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9800" yWindow="600" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="442">
   <si>
     <t>group</t>
   </si>
@@ -1852,6 +1852,18 @@
   </si>
   <si>
     <t>狛井朱奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云雀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是叔叔啊！？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2212,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C400" sqref="C400"/>
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5569,6 +5581,30 @@
         <v>438</v>
       </c>
     </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>2</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>2</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>2</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF008CE9-BF12-45EE-A1CC-51CB5B44698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F519C2-F962-4BEB-8966-C9AC2F9BE34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="445">
   <si>
     <t>group</t>
   </si>
@@ -1864,6 +1864,18 @@
   </si>
   <si>
     <t>是叔叔啊！？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宇雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回幻灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦吼厉害了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2224,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C401" sqref="C401"/>
+      <selection activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5605,6 +5617,30 @@
         <v>441</v>
       </c>
     </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>2</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>2</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>2</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F519C2-F962-4BEB-8966-C9AC2F9BE34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85B062-16C2-412C-98F5-973D34BFAFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11390" yWindow="9310" windowWidth="23080" windowHeight="5610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="449">
   <si>
     <t>group</t>
   </si>
@@ -1876,6 +1876,22 @@
   </si>
   <si>
     <t>哦吼厉害了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shehao Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rogers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海湾胖老六</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2236,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406"/>
+      <selection activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5641,6 +5657,38 @@
         <v>444</v>
       </c>
     </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>2</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>2</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>2</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>2</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85B062-16C2-412C-98F5-973D34BFAFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3920FA52-E3FC-4353-964F-2398D6C89128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11390" yWindow="9310" windowWidth="23080" windowHeight="5610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9040" yWindow="4200" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="452">
   <si>
     <t>group</t>
   </si>
@@ -1892,6 +1892,18 @@
   </si>
   <si>
     <t>渤海湾胖老六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊特克利爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狐狸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2252,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D412"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="D413" sqref="D413"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5689,6 +5701,30 @@
         <v>448</v>
       </c>
     </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>2</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>2</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>2</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3920FA52-E3FC-4353-964F-2398D6C89128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A8AD82-8BBD-45C7-BBE1-EF5728A27112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="4200" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="456">
   <si>
     <t>group</t>
   </si>
@@ -1904,6 +1904,22 @@
   </si>
   <si>
     <t>小狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacenia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使是假的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巭孬乺嫑烎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰叶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2264,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C420" sqref="C420"/>
+      <selection activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5725,6 +5741,38 @@
         <v>451</v>
       </c>
     </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>2</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>2</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>2</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>2</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A8AD82-8BBD-45C7-BBE1-EF5728A27112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8484CE8-9957-4908-86AC-2DBACDA61251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="4200" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="458">
   <si>
     <t>group</t>
   </si>
@@ -1920,6 +1920,14 @@
   </si>
   <si>
     <t>椰叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽灵梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流云江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2280,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D419"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="D421" sqref="D421"/>
+      <selection activeCell="C427" sqref="C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5773,6 +5781,22 @@
         <v>455</v>
       </c>
     </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>2</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>2</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8484CE8-9957-4908-86AC-2DBACDA61251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115946A9-0C9B-49A1-9277-A272A93B7C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="4200" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="462">
   <si>
     <t>group</t>
   </si>
@@ -1928,6 +1928,22 @@
   </si>
   <si>
     <t>流云江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦老舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0605的前桌王同学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年了，王新慧，别来无恙？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2288,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:D424"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C427" sqref="C427"/>
+      <selection activeCell="C429" sqref="C429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5757,7 +5773,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>2</v>
       </c>
@@ -5765,7 +5781,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>2</v>
       </c>
@@ -5773,7 +5789,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>2</v>
       </c>
@@ -5781,7 +5797,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>2</v>
       </c>
@@ -5789,12 +5805,39 @@
         <v>456</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>2</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>2</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>1</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>2</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115946A9-0C9B-49A1-9277-A272A93B7C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9CA469-3791-41DD-91A4-6E883DA1C29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="4200" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="463">
   <si>
     <t>group</t>
   </si>
@@ -1944,6 +1944,10 @@
   </si>
   <si>
     <t>小王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲哀快半拍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2304,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D425"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429"/>
+      <selection activeCell="C430" sqref="C430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5840,6 +5844,14 @@
         <v>461</v>
       </c>
     </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>2</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9CA469-3791-41DD-91A4-6E883DA1C29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7219D8-611D-4CE5-864C-DF91CC7EB2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="4200" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="470">
   <si>
     <t>group</t>
   </si>
@@ -1948,6 +1948,34 @@
   </si>
   <si>
     <t>悲哀快半拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑诛天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆宇图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALANYSNOWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#800080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小蔬菜马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kusabier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2308,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D425"/>
+  <dimension ref="A1:D431"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C430" sqref="C430"/>
+      <selection activeCell="C434" sqref="C434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5777,7 +5805,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>2</v>
       </c>
@@ -5785,7 +5813,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>2</v>
       </c>
@@ -5793,7 +5821,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>2</v>
       </c>
@@ -5801,7 +5829,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>2</v>
       </c>
@@ -5809,7 +5837,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>2</v>
       </c>
@@ -5817,7 +5845,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>2</v>
       </c>
@@ -5825,7 +5853,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -5836,7 +5864,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>2</v>
       </c>
@@ -5844,12 +5872,63 @@
         <v>461</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>2</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>2</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>2</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>2</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>2</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>2</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>2</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7219D8-611D-4CE5-864C-DF91CC7EB2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85138EF0-3E44-4E05-A481-E846883DB543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="4200" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="471">
   <si>
     <t>group</t>
   </si>
@@ -1977,6 +1977,9 @@
   <si>
     <t>Kusabier</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只沐雨鸭QwQ</t>
   </si>
 </sst>
 </file>
@@ -2336,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D432"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C434" sqref="C434"/>
+      <selection activeCell="A432" sqref="A432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5931,6 +5934,14 @@
         <v>469</v>
       </c>
     </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>2</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85138EF0-3E44-4E05-A481-E846883DB543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F871CA-D6F0-4181-8562-483FCA99F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="4200" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3050" yWindow="600" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="473">
   <si>
     <t>group</t>
   </si>
@@ -1980,6 +1980,14 @@
   </si>
   <si>
     <t>一只沐雨鸭QwQ</t>
+  </si>
+  <si>
+    <t>张静静今天吃饱了吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2339,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D432"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5942,6 +5950,22 @@
         <v>470</v>
       </c>
     </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>2</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>2</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F871CA-D6F0-4181-8562-483FCA99F03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47BBADC-EAC5-451D-B7AC-6E134A182B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3050" yWindow="600" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="481">
   <si>
     <t>group</t>
   </si>
@@ -1987,6 +1987,38 @@
   </si>
   <si>
     <t>源源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生如戏，戏如人生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱俊杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#930093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧濑不是木来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白山野猪之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰杰子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2347,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5950,7 +5982,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>2</v>
       </c>
@@ -5958,12 +5990,74 @@
         <v>471</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>2</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>1</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>2</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>2</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>2</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>2</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>2</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>2</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47BBADC-EAC5-451D-B7AC-6E134A182B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2A4A3-1A76-4BDA-A357-337868D234D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3050" yWindow="600" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="486">
   <si>
     <t>group</t>
   </si>
@@ -2019,6 +2019,26 @@
   </si>
   <si>
     <t>杰杰子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落叶随风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄焖鸡米米饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醴樂懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均摘星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2379,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D441"/>
+  <dimension ref="A1:D446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+      <selection activeCell="C448" sqref="C448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6060,6 +6080,46 @@
         <v>480</v>
       </c>
     </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>2</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>2</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>2</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>2</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>2</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2A4A3-1A76-4BDA-A357-337868D234D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58033A91-7844-4CD6-A20B-4A214B64B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="1980" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="488">
   <si>
     <t>group</t>
   </si>
@@ -2039,6 +2039,14 @@
   </si>
   <si>
     <t>均摘星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张徐涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buruol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2399,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D446"/>
+  <dimension ref="A1:D448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="C448" sqref="C448"/>
+      <selection activeCell="D448" sqref="D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6120,6 +6128,22 @@
         <v>485</v>
       </c>
     </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>2</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>2</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58033A91-7844-4CD6-A20B-4A214B64B1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C49240-C4D3-4A4F-8753-083443B53022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1980" windowWidth="23350" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="491">
   <si>
     <t>group</t>
   </si>
@@ -2047,6 +2047,18 @@
   </si>
   <si>
     <t>Buruol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃不饱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚尼玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行者汤恩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2407,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D448"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="D448" sqref="D448"/>
+      <selection activeCell="G449" sqref="G449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6144,6 +6156,30 @@
         <v>487</v>
       </c>
     </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>2</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>2</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>2</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\temp\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C49240-C4D3-4A4F-8753-083443B53022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A929D90-093B-4207-AD4B-CC0D9EB35D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="493">
   <si>
     <t>group</t>
   </si>
@@ -2059,6 +2059,14 @@
   </si>
   <si>
     <t>行者汤恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰的肥猿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库库林白夜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2419,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D451"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="G449" sqref="G449"/>
+      <selection activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6180,6 +6188,22 @@
         <v>490</v>
       </c>
     </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>2</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>2</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\temp\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A929D90-093B-4207-AD4B-CC0D9EB35D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB3483-9E2D-4F04-AB74-ACE9C4A1DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="496">
   <si>
     <t>group</t>
   </si>
@@ -2067,6 +2067,18 @@
   </si>
   <si>
     <t>库库林白夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSSamuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>『H』</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2427,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:D456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="C454" sqref="C454"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="C458" sqref="C458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6204,6 +6216,30 @@
         <v>492</v>
       </c>
     </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>2</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>2</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>2</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\temp\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB3483-9E2D-4F04-AB74-ACE9C4A1DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D781A6CB-AC7A-4515-AF36-11F92F55A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="4190" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="498">
   <si>
     <t>group</t>
   </si>
@@ -2079,6 +2079,14 @@
   </si>
   <si>
     <t>『H』</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法少女立花响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凞咥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2439,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D456"/>
+  <dimension ref="A1:D458"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="C458" sqref="C458"/>
+      <selection activeCell="K437" sqref="K437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6240,6 +6248,22 @@
         <v>495</v>
       </c>
     </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>2</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>2</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D781A6CB-AC7A-4515-AF36-11F92F55A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0909EEB-A563-40CF-B391-5CF107512682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="4190" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2860" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
   <si>
     <t>group</t>
   </si>
@@ -2087,6 +2087,14 @@
   </si>
   <si>
     <t>凞咥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7FFFFD4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D458"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="K437" sqref="K437"/>
+      <selection activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6184,7 +6192,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>2</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>2</v>
       </c>
@@ -6200,7 +6208,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>2</v>
       </c>
@@ -6208,7 +6216,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>2</v>
       </c>
@@ -6216,7 +6224,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>2</v>
       </c>
@@ -6224,7 +6232,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>2</v>
       </c>
@@ -6232,7 +6240,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>2</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>2</v>
       </c>
@@ -6248,7 +6256,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>2</v>
       </c>
@@ -6256,12 +6264,23 @@
         <v>496</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>2</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>497</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>2</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0909EEB-A563-40CF-B391-5CF107512682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB65C7-AB9B-4089-B0EE-92EE18EDD871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2860" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1150" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="504">
   <si>
     <t>group</t>
   </si>
@@ -2095,6 +2095,22 @@
   </si>
   <si>
     <t>#7FFFFD4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东京八百万萝莉总教头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门后有只猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeoLoki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆因堂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2455,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="D451" sqref="D451"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="F463" sqref="F463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6283,6 +6299,38 @@
         <v>499</v>
       </c>
     </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>2</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>2</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>2</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>2</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB65C7-AB9B-4089-B0EE-92EE18EDD871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09132F2C-CF87-4132-B51B-3A14617460CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1150" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="507">
   <si>
     <t>group</t>
   </si>
@@ -2111,6 +2111,18 @@
   </si>
   <si>
     <t>皆因堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2471,10 +2483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="F463" sqref="F463"/>
+      <selection activeCell="M481" sqref="M481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6331,6 +6343,30 @@
         <v>503</v>
       </c>
     </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>2</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>2</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>2</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09132F2C-CF87-4132-B51B-3A14617460CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5A7732-FBAC-443D-95FC-079AEF78A2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27700" yWindow="6500" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="509">
   <si>
     <t>group</t>
   </si>
@@ -2123,6 +2123,14 @@
   </si>
   <si>
     <t>没有名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希希希土</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2483,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D466"/>
+  <dimension ref="A1:D468"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="M481" sqref="M481"/>
+      <selection activeCell="C471" sqref="C471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6367,6 +6375,22 @@
         <v>506</v>
       </c>
     </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>2</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>2</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5A7732-FBAC-443D-95FC-079AEF78A2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6BDA69-7FBF-4CC7-A226-E5CB55E9EF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27700" yWindow="6500" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="514">
   <si>
     <t>group</t>
   </si>
@@ -2131,6 +2131,26 @@
   </si>
   <si>
     <t>希希希土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好真实这个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么时候修成正果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethan.lang@wisdomhashrate.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京团队诚聘java、区块链相关工程师，加入我们吧！你的人生何须重开？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2491,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C471" sqref="C471"/>
+      <selection activeCell="O466" sqref="O466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6359,7 +6379,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>2</v>
       </c>
@@ -6367,7 +6387,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>2</v>
       </c>
@@ -6375,7 +6395,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>2</v>
       </c>
@@ -6383,12 +6403,47 @@
         <v>508</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>2</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>507</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>2</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>2</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>2</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>1</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -6396,8 +6451,9 @@
   <hyperlinks>
     <hyperlink ref="B34" r:id="rId1" xr:uid="{EFEB6B61-6435-4392-99B1-CAF9DD6A437F}"/>
     <hyperlink ref="B265" r:id="rId2" xr:uid="{CB2CA6D1-AD70-468E-B7D4-1B07E6E4967B}"/>
+    <hyperlink ref="B472" r:id="rId3" xr:uid="{061A2415-2D80-421F-9F71-B6F0DA435A5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6BDA69-7FBF-4CC7-A226-E5CB55E9EF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76934AC2-1F7F-4B5C-ADD8-67925679F353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14290" yWindow="3610" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="517">
   <si>
     <t>group</t>
   </si>
@@ -2151,6 +2151,18 @@
   </si>
   <si>
     <t>北京团队诚聘java、区块链相关工程师，加入我们吧！你的人生何须重开？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艳阳兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffff00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七茗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2511,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D472"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="O466" sqref="O466"/>
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6379,7 +6391,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>2</v>
       </c>
@@ -6387,7 +6399,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>2</v>
       </c>
@@ -6395,7 +6407,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>2</v>
       </c>
@@ -6403,7 +6415,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>2</v>
       </c>
@@ -6411,7 +6423,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>2</v>
       </c>
@@ -6419,7 +6431,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>2</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>2</v>
       </c>
@@ -6435,7 +6447,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>1</v>
       </c>
@@ -6444,6 +6456,25 @@
       </c>
       <c r="C472" s="2" t="s">
         <v>513</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>2</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>2</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76934AC2-1F7F-4B5C-ADD8-67925679F353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2DB13A-16BD-400A-9AB5-6F0ABB842472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14290" yWindow="3610" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19050" yWindow="3410" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="519">
   <si>
     <t>group</t>
   </si>
@@ -2163,6 +2163,14 @@
   </si>
   <si>
     <t>七茗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFB6C1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2523,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D474"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="B475" sqref="B475"/>
+      <selection activeCell="C479" sqref="C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6477,6 +6485,17 @@
         <v>516</v>
       </c>
     </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>2</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2DB13A-16BD-400A-9AB5-6F0ABB842472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375A69D-B569-4F90-8E3E-2FB134641F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19050" yWindow="3410" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="520">
   <si>
     <t>group</t>
   </si>
@@ -2171,6 +2171,10 @@
   </si>
   <si>
     <t>#FFB6C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磕学家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2531,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C479" sqref="C479"/>
+      <selection activeCell="C484" sqref="C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6496,6 +6500,14 @@
         <v>518</v>
       </c>
     </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>2</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E375A69D-B569-4F90-8E3E-2FB134641F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8D1FF-164C-40C1-9E6C-91A5C4CA9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="521">
   <si>
     <t>group</t>
   </si>
@@ -2175,6 +2175,10 @@
   </si>
   <si>
     <t>磕学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一根薯条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2535,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D476"/>
+  <dimension ref="A1:D477"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C484" sqref="C484"/>
+      <selection activeCell="C482" sqref="C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6508,6 +6512,14 @@
         <v>519</v>
       </c>
     </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>2</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A8D1FF-164C-40C1-9E6C-91A5C4CA9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CBB50A-3273-4513-BAFC-F193658F620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="3830" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="522">
   <si>
     <t>group</t>
   </si>
@@ -2179,6 +2179,10 @@
   </si>
   <si>
     <t>一根薯条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcpzhhh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2539,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D477"/>
+  <dimension ref="A1:D478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="C482" sqref="C482"/>
+      <selection activeCell="H467" sqref="H467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6520,6 +6524,14 @@
         <v>520</v>
       </c>
     </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>2</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/data/specialthanks-dun.xlsx
+++ b/data/specialthanks-dun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CBB50A-3273-4513-BAFC-F193658F620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D869167-0E8E-44F7-B9B8-5B7AD5077051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="3830" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="523">
   <si>
     <t>group</t>
   </si>
@@ -2183,6 +2183,10 @@
   </si>
   <si>
     <t>xcpzhhh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkaiser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2543,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D478"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="H467" sqref="H467"/>
+      <selection activeCell="C486" sqref="C486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6532,6 +6536,14 @@
         <v>521</v>
       </c>
     </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>2</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
